--- a/C-grp-05-HolleList-01_28386_assignsubmission_file/SEUMALUR/Seumalur_2101541083/Seumalur.xlsx
+++ b/C-grp-05-HolleList-01_28386_assignsubmission_file/SEUMALUR/Seumalur_2101541083/Seumalur.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ara/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Primahadi/Documents/research/Lexiology_Lexicography_Even-2024_Holle_List_Barrier_Islands/C-grp-05-HolleList-01_28386_assignsubmission_file/SEUMALUR/Seumalur_2101541083/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A07DAE-A944-9C47-90CA-192344A2A379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B7FE6B-CA5D-C34E-98CC-DDD5F61A2E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0FF52950-B1E5-BC45-B1D3-722132EA040C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{0FF52950-B1E5-BC45-B1D3-722132EA040C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$247</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -70,9 +73,6 @@
     <t>noun</t>
   </si>
   <si>
-    <t>nī ' ènè</t>
-  </si>
-  <si>
     <t>to climb</t>
   </si>
   <si>
@@ -238,9 +238,6 @@
     <t>anàk binatang</t>
   </si>
   <si>
-    <t xml:space="preserve">I'joh </t>
-  </si>
-  <si>
     <t>kaoe</t>
   </si>
   <si>
@@ -415,18 +412,9 @@
     <t>djawí silai</t>
   </si>
   <si>
-    <t>bè '</t>
-  </si>
-  <si>
-    <t>mò ' ah</t>
-  </si>
-  <si>
     <t>koedò</t>
   </si>
   <si>
-    <t>menggowa manòwà '</t>
-  </si>
-  <si>
     <t>roesòh</t>
   </si>
   <si>
@@ -439,9 +427,6 @@
     <t>majàl</t>
   </si>
   <si>
-    <t>mí ' auw</t>
-  </si>
-  <si>
     <t>màtjàn</t>
   </si>
   <si>
@@ -454,9 +439,6 @@
     <t>bolum, bolum odung</t>
   </si>
   <si>
-    <t>o ' àk</t>
-  </si>
-  <si>
     <t>manoh</t>
   </si>
   <si>
@@ -475,9 +457,6 @@
     <t>tioeng</t>
   </si>
   <si>
-    <t>mano ' boelawan</t>
-  </si>
-  <si>
     <t>lawan lawan</t>
   </si>
   <si>
@@ -502,15 +481,6 @@
     <t>pélàndoek</t>
   </si>
   <si>
-    <t>tí ' oe</t>
-  </si>
-  <si>
-    <t>tí ' oe sèbàl</t>
-  </si>
-  <si>
-    <t>tí ' oe aboero</t>
-  </si>
-  <si>
     <t>loetoeng</t>
   </si>
   <si>
@@ -808,9 +778,6 @@
     <t>sawa, sawa né oel</t>
   </si>
   <si>
-    <t>alí ' àn</t>
-  </si>
-  <si>
     <t>lintah, talimàta</t>
   </si>
   <si>
@@ -922,9 +889,6 @@
     <t>lor, bala</t>
   </si>
   <si>
-    <t>mata ' a loelboek</t>
-  </si>
-  <si>
     <t>alêvo</t>
   </si>
   <si>
@@ -1000,9 +964,6 @@
     <t>èntaro</t>
   </si>
   <si>
-    <t>loe ' an</t>
-  </si>
-  <si>
     <t>títí</t>
   </si>
   <si>
@@ -1042,9 +1003,6 @@
     <t>timbla ìtám</t>
   </si>
   <si>
-    <t>batoe ahe '</t>
-  </si>
-  <si>
     <t>toekáng bêsi</t>
   </si>
   <si>
@@ -1669,30 +1627,18 @@
     <t>1029/1030</t>
   </si>
   <si>
-    <t>kàpàl ago ' i</t>
-  </si>
-  <si>
     <t>sàmboh</t>
   </si>
   <si>
     <t>djaloer</t>
   </si>
   <si>
-    <t>tí ' ang</t>
-  </si>
-  <si>
-    <t>lei ' àl</t>
-  </si>
-  <si>
     <t>amoerì</t>
   </si>
   <si>
     <t>solàn</t>
   </si>
   <si>
-    <t>nia de' in</t>
-  </si>
-  <si>
     <t>1041/1042</t>
   </si>
   <si>
@@ -1705,9 +1651,6 @@
     <t>ràkki</t>
   </si>
   <si>
-    <t>ana ' oewàn</t>
-  </si>
-  <si>
     <t>matoemboe</t>
   </si>
   <si>
@@ -1759,9 +1702,6 @@
     <t>mache'nong</t>
   </si>
   <si>
-    <t>itò ' 2</t>
-  </si>
-  <si>
     <t>mèró véro</t>
   </si>
   <si>
@@ -1771,9 +1711,6 @@
     <t>1080/1081</t>
   </si>
   <si>
-    <t>a ' eufeu</t>
-  </si>
-  <si>
     <t>abacaha</t>
   </si>
   <si>
@@ -1792,9 +1729,6 @@
     <t xml:space="preserve">mètollok </t>
   </si>
   <si>
-    <t>mè gé ' o</t>
-  </si>
-  <si>
     <t>malaja</t>
   </si>
   <si>
@@ -2276,6 +2210,75 @@
   </si>
   <si>
     <t>adverb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i'joh </t>
+  </si>
+  <si>
+    <t>nī' ènè</t>
+  </si>
+  <si>
+    <t>bè'</t>
+  </si>
+  <si>
+    <t>mò'ah</t>
+  </si>
+  <si>
+    <t>menggowa̠ manòwà'</t>
+  </si>
+  <si>
+    <t>mí'auw</t>
+  </si>
+  <si>
+    <t>o'àk</t>
+  </si>
+  <si>
+    <t>mano' boelawan</t>
+  </si>
+  <si>
+    <t>tí'oe</t>
+  </si>
+  <si>
+    <t>tí'oe sèbàl</t>
+  </si>
+  <si>
+    <t>tí'oe aboero</t>
+  </si>
+  <si>
+    <t>alí'àn</t>
+  </si>
+  <si>
+    <t>mata'a loelboek</t>
+  </si>
+  <si>
+    <t>loe'an</t>
+  </si>
+  <si>
+    <t>batoe ahe'</t>
+  </si>
+  <si>
+    <t>kàpàl ago'i</t>
+  </si>
+  <si>
+    <t>tí'ang</t>
+  </si>
+  <si>
+    <t>lei'àl</t>
+  </si>
+  <si>
+    <t>nia de'in</t>
+  </si>
+  <si>
+    <t>ana'oewàn</t>
+  </si>
+  <si>
+    <t>itò'²</t>
+  </si>
+  <si>
+    <t>a'eufeu</t>
+  </si>
+  <si>
+    <t>mè gé'o</t>
   </si>
 </sst>
 </file>
@@ -2355,9 +2358,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2395,7 +2398,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2501,7 +2504,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2643,7 +2646,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2653,8 +2656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78930770-7FA4-9A4B-933F-114C9144B845}">
   <dimension ref="A1:G247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="206" workbookViewId="0">
+      <selection activeCell="A248" sqref="A248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2710,33 +2713,33 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>725</v>
       </c>
       <c r="B3" s="3">
         <v>737</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -2744,16 +2747,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3">
         <v>741</v>
       </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -2761,16 +2764,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -2778,16 +2781,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3">
         <v>746</v>
       </c>
       <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -2795,16 +2798,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3">
         <v>748</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -2812,16 +2815,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3">
         <v>749</v>
       </c>
       <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
         <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -2829,16 +2832,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3">
         <v>750</v>
       </c>
       <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
         <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -2846,16 +2849,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3">
         <v>752</v>
       </c>
       <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
         <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -2863,16 +2866,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3">
         <v>753</v>
       </c>
       <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
         <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -2880,16 +2883,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3">
         <v>754</v>
       </c>
       <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
         <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -2897,16 +2900,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3">
         <v>755</v>
       </c>
       <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
         <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -2914,16 +2917,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3">
         <v>757</v>
       </c>
       <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
         <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -2931,16 +2934,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3">
         <v>758</v>
       </c>
       <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
         <v>51</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -2948,16 +2951,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3">
         <v>759</v>
       </c>
       <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
         <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -2965,16 +2968,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3">
         <v>761</v>
       </c>
       <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
         <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -2982,16 +2985,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="3">
         <v>763</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -2999,16 +3002,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="3">
         <v>764</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -3016,16 +3019,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="3">
         <v>765</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -3033,16 +3036,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="3">
         <v>766</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -3050,16 +3053,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="3">
         <v>770</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -3067,16 +3070,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="3">
         <v>771</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -3084,16 +3087,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="3">
         <v>772</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -3101,16 +3104,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="3">
         <v>773</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -3118,16 +3121,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="3">
         <v>774</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
@@ -3135,16 +3138,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="3">
         <v>775</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -3152,16 +3155,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>724</v>
       </c>
       <c r="B29" s="3">
         <v>778</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -3169,16 +3172,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B30" s="3">
         <v>779</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -3186,16 +3189,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B31" s="3">
         <v>780</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -3203,16 +3206,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B32" s="3">
         <v>781</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -3220,16 +3223,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B33" s="3">
         <v>786</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
@@ -3237,16 +3240,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B34" s="3">
         <v>787</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
@@ -3254,33 +3257,33 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35" s="3">
         <v>788</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B36" s="3">
         <v>789</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -3288,16 +3291,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B37" s="3">
         <v>790</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
@@ -3305,16 +3308,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B38" s="3">
         <v>794</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
@@ -3322,16 +3325,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B39" s="3">
         <v>796</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
@@ -3342,13 +3345,13 @@
         <v>797</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F40">
         <v>53</v>
@@ -3359,10 +3362,10 @@
         <v>799</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -3373,16 +3376,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C42" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D42" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
@@ -3390,16 +3393,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B43" s="3">
         <v>803</v>
       </c>
       <c r="C43" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -3407,16 +3410,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B44" s="3">
         <v>804</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D44" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
@@ -3424,50 +3427,50 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>726</v>
       </c>
       <c r="B45" s="3">
         <v>805</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D45" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>127</v>
+        <v>727</v>
       </c>
       <c r="B46" s="3">
         <v>806</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D46" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B47" s="3">
         <v>807</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D47" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
@@ -3475,33 +3478,33 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>728</v>
       </c>
       <c r="B48" s="3">
         <v>808</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D48" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B49" s="3">
         <v>809</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
@@ -3509,16 +3512,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B50" s="3">
         <v>811</v>
       </c>
       <c r="C50" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D50" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
@@ -3526,33 +3529,33 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B51" s="3">
         <v>812</v>
       </c>
       <c r="C51" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D51" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B52" s="3">
         <v>813</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D52" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -3560,33 +3563,33 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>134</v>
+        <v>729</v>
       </c>
       <c r="B53" s="3">
         <v>814</v>
       </c>
       <c r="C53" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D53" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B54" s="3">
         <v>815</v>
       </c>
       <c r="C54" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D54" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
@@ -3594,33 +3597,33 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B55" s="3">
         <v>816</v>
       </c>
       <c r="C55" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D55" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B56" s="3">
         <v>818</v>
       </c>
       <c r="C56" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D56" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
@@ -3628,16 +3631,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B57" s="3">
         <v>824</v>
       </c>
       <c r="C57" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D57" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
@@ -3645,16 +3648,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>139</v>
+        <v>730</v>
       </c>
       <c r="B58" s="3">
         <v>825</v>
       </c>
       <c r="C58" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D58" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
@@ -3662,16 +3665,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B59" s="3">
         <v>826</v>
       </c>
       <c r="C59" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D59" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
@@ -3679,16 +3682,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B60" s="3">
         <v>827</v>
       </c>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D60" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
@@ -3696,16 +3699,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B61" s="3">
         <v>828</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D61" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
@@ -3713,16 +3716,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B62" s="3">
         <v>830</v>
       </c>
       <c r="C62" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D62" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E62" t="s">
         <v>10</v>
@@ -3730,16 +3733,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B63" s="3">
         <v>833</v>
       </c>
       <c r="C63" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D63" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E63" t="s">
         <v>10</v>
@@ -3747,16 +3750,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B64" s="3">
         <v>834</v>
       </c>
       <c r="C64" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D64" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
@@ -3764,16 +3767,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>146</v>
+        <v>731</v>
       </c>
       <c r="B65" s="3">
         <v>835</v>
       </c>
       <c r="C65" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D65" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E65" t="s">
         <v>10</v>
@@ -3781,16 +3784,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B66" s="3">
         <v>836</v>
       </c>
       <c r="C66" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D66" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
@@ -3798,16 +3801,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B67" s="3">
         <v>840</v>
       </c>
       <c r="C67" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D67" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
@@ -3815,16 +3818,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B68" s="3">
         <v>842</v>
       </c>
       <c r="C68" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D68" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
@@ -3832,16 +3835,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B69" s="3">
         <v>843</v>
       </c>
       <c r="C69" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D69" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
@@ -3849,16 +3852,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B70" s="3">
         <v>844</v>
       </c>
       <c r="C70" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D70" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
@@ -3866,16 +3869,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B71" s="3">
         <v>845</v>
       </c>
       <c r="C71" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D71" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
@@ -3883,16 +3886,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B72" s="3">
         <v>846</v>
       </c>
       <c r="C72" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D72" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
@@ -3900,16 +3903,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B73" s="3">
         <v>847</v>
       </c>
       <c r="C73" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D73" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
@@ -3917,16 +3920,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B74" s="3">
         <v>849</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D74" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E74" t="s">
         <v>10</v>
@@ -3934,16 +3937,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B75" s="3">
         <v>850</v>
       </c>
       <c r="C75" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D75" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
@@ -3951,16 +3954,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>732</v>
       </c>
       <c r="B76" s="3">
         <v>851</v>
       </c>
       <c r="C76" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D76" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E76" t="s">
         <v>10</v>
@@ -3968,16 +3971,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>733</v>
       </c>
       <c r="B77" s="3">
         <v>852</v>
       </c>
       <c r="C77" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D77" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E77" t="s">
         <v>10</v>
@@ -3985,16 +3988,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>157</v>
+        <v>734</v>
       </c>
       <c r="B78" s="3">
         <v>853</v>
       </c>
       <c r="C78" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D78" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E78" t="s">
         <v>10</v>
@@ -4002,16 +4005,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B79" s="3">
         <v>854</v>
       </c>
       <c r="C79" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D79" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
@@ -4019,16 +4022,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B80" s="3">
         <v>861</v>
       </c>
       <c r="C80" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D80" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
@@ -4042,10 +4045,10 @@
         <v>862</v>
       </c>
       <c r="C81" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D81" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
@@ -4056,16 +4059,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B82" s="3">
         <v>865</v>
       </c>
       <c r="C82" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D82" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
@@ -4076,16 +4079,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B83" s="3">
         <v>866</v>
       </c>
       <c r="C83" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D83" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="E83" t="s">
         <v>10</v>
@@ -4096,16 +4099,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B84" s="3">
         <v>869</v>
       </c>
       <c r="C84" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D84" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E84" t="s">
         <v>10</v>
@@ -4113,16 +4116,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B85" s="3">
         <v>870</v>
       </c>
       <c r="C85" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D85" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E85" t="s">
         <v>10</v>
@@ -4130,16 +4133,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B86" s="3">
         <v>871</v>
       </c>
       <c r="C86" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D86" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
@@ -4147,16 +4150,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B87" s="3">
         <v>872</v>
       </c>
       <c r="C87" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="D87" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="E87" t="s">
         <v>10</v>
@@ -4164,16 +4167,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B88" s="3">
         <v>877</v>
       </c>
       <c r="C88" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="D88" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="E88" t="s">
         <v>10</v>
@@ -4181,16 +4184,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B89" s="3">
         <v>878</v>
       </c>
       <c r="C89" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="D89" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="E89" t="s">
         <v>10</v>
@@ -4198,16 +4201,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B90" s="3">
         <v>879</v>
       </c>
       <c r="C90" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="D90" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="E90" t="s">
         <v>10</v>
@@ -4215,16 +4218,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B91" s="3">
         <v>881</v>
       </c>
       <c r="C91" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="D91" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E91" t="s">
         <v>10</v>
@@ -4232,16 +4235,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B92" s="3">
         <v>884</v>
       </c>
       <c r="C92" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="D92" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="E92" t="s">
         <v>10</v>
@@ -4252,16 +4255,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B93" s="3">
         <v>885</v>
       </c>
       <c r="C93" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="D93" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E93" t="s">
         <v>10</v>
@@ -4269,16 +4272,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B94" s="3">
         <v>886</v>
       </c>
       <c r="C94" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="D94" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="E94" t="s">
         <v>10</v>
@@ -4286,16 +4289,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>257</v>
+        <v>735</v>
       </c>
       <c r="B95" s="3">
         <v>888</v>
       </c>
       <c r="C95" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="D95" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="E95" t="s">
         <v>10</v>
@@ -4303,16 +4306,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B96" s="3">
         <v>889</v>
       </c>
       <c r="C96" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="D96" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="E96" t="s">
         <v>10</v>
@@ -4323,16 +4326,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B97" s="3">
         <v>891</v>
       </c>
       <c r="C97" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="D97" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="E97" t="s">
         <v>10</v>
@@ -4340,16 +4343,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B98" s="3">
         <v>892</v>
       </c>
       <c r="C98" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="D98" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="E98" t="s">
         <v>10</v>
@@ -4357,16 +4360,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B99" s="3">
         <v>893</v>
       </c>
       <c r="C99" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="D99" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="E99" t="s">
         <v>10</v>
@@ -4374,16 +4377,16 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B100" s="3">
         <v>894</v>
       </c>
       <c r="C100" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="D100" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="E100" t="s">
         <v>10</v>
@@ -4391,16 +4394,16 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B101" s="3">
         <v>896</v>
       </c>
       <c r="C101" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D101" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="E101" t="s">
         <v>10</v>
@@ -4408,16 +4411,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B102" s="3">
         <v>898</v>
       </c>
       <c r="C102" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="D102" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="E102" t="s">
         <v>10</v>
@@ -4425,16 +4428,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B103" s="3">
         <v>899</v>
       </c>
       <c r="C103" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="D103" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="E103" t="s">
         <v>10</v>
@@ -4442,16 +4445,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B104" s="3">
         <v>900</v>
       </c>
       <c r="C104" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="D104" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="E104" t="s">
         <v>10</v>
@@ -4459,16 +4462,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C105" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="D105" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="E105" t="s">
         <v>10</v>
@@ -4476,16 +4479,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B106" s="3">
         <v>903</v>
       </c>
       <c r="C106" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D106" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="E106" t="s">
         <v>10</v>
@@ -4493,16 +4496,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B107" s="3">
         <v>905</v>
       </c>
       <c r="C107" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="D107" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="E107" t="s">
         <v>10</v>
@@ -4510,16 +4513,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B108" s="3">
         <v>906</v>
       </c>
       <c r="C108" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="D108" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="E108" t="s">
         <v>10</v>
@@ -4527,16 +4530,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B109" s="3">
         <v>907</v>
       </c>
       <c r="C109" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="D109" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="E109" t="s">
         <v>10</v>
@@ -4544,16 +4547,16 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B110" s="3">
         <v>908</v>
       </c>
       <c r="C110" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="D110" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="E110" t="s">
         <v>10</v>
@@ -4561,16 +4564,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B111" s="3">
         <v>910</v>
       </c>
       <c r="C111" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="D111" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="E111" t="s">
         <v>10</v>
@@ -4581,16 +4584,16 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B112" s="3">
         <v>911</v>
       </c>
       <c r="C112" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="D112" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="E112" t="s">
         <v>10</v>
@@ -4598,16 +4601,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B113" s="3">
         <v>912</v>
       </c>
       <c r="C113" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="D113" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="E113" t="s">
         <v>10</v>
@@ -4615,16 +4618,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B114" s="3">
         <v>917</v>
       </c>
       <c r="C114" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="D114" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="E114" t="s">
         <v>10</v>
@@ -4632,16 +4635,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B115" s="3">
         <v>919</v>
       </c>
       <c r="C115" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="D115" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="E115" t="s">
         <v>10</v>
@@ -4649,16 +4652,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B116" s="3">
         <v>920</v>
       </c>
       <c r="C116" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="D116" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="E116" t="s">
         <v>10</v>
@@ -4666,16 +4669,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B117" s="3">
         <v>921</v>
       </c>
       <c r="C117" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="D117" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="E117" t="s">
         <v>10</v>
@@ -4683,16 +4686,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B118" s="3">
         <v>923</v>
       </c>
       <c r="C118" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="D118" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E118" t="s">
         <v>10</v>
@@ -4700,16 +4703,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B119" s="3">
         <v>924</v>
       </c>
       <c r="C119" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="D119" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="E119" t="s">
         <v>10</v>
@@ -4717,16 +4720,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B120" s="3">
         <v>925</v>
       </c>
       <c r="C120" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="D120" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="E120" t="s">
         <v>10</v>
@@ -4734,16 +4737,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B121" s="3">
         <v>926</v>
       </c>
       <c r="C121" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="D121" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="E121" t="s">
         <v>10</v>
@@ -4751,16 +4754,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B122" s="3">
         <v>927</v>
       </c>
       <c r="C122" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D122" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="E122" t="s">
         <v>10</v>
@@ -4768,16 +4771,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B123" s="3">
         <v>928</v>
       </c>
       <c r="C123" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="D123" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="E123" t="s">
         <v>10</v>
@@ -4785,16 +4788,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B124" s="3">
         <v>929</v>
       </c>
       <c r="C124" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="D124" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="E124" t="s">
         <v>10</v>
@@ -4802,16 +4805,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B125" s="3">
         <v>930</v>
       </c>
       <c r="C125" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="D125" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="E125" t="s">
         <v>10</v>
@@ -4819,16 +4822,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B126" s="3">
         <v>931</v>
       </c>
       <c r="C126" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="D126" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="E126" t="s">
         <v>10</v>
@@ -4836,16 +4839,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>295</v>
+        <v>736</v>
       </c>
       <c r="B127" s="3">
         <v>932</v>
       </c>
       <c r="C127" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="D127" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="E127" t="s">
         <v>10</v>
@@ -4853,16 +4856,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B128" s="3">
         <v>934</v>
       </c>
       <c r="C128" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="D128" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="E128" t="s">
         <v>10</v>
@@ -4870,19 +4873,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B129" s="3">
         <v>935</v>
       </c>
       <c r="C129" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="D129" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="E129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F129">
         <v>62</v>
@@ -4890,16 +4893,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B130" s="3">
         <v>936</v>
       </c>
       <c r="C130" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D130" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E130" t="s">
         <v>10</v>
@@ -4907,16 +4910,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B131" s="3">
         <v>937</v>
       </c>
       <c r="C131" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="D131" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="E131" t="s">
         <v>10</v>
@@ -4924,16 +4927,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B132" s="3">
         <v>938</v>
       </c>
       <c r="C132" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="D132" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="E132" t="s">
         <v>10</v>
@@ -4941,16 +4944,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B133" s="3">
         <v>939</v>
       </c>
       <c r="C133" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="D133" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="E133" t="s">
         <v>10</v>
@@ -4958,16 +4961,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B134" s="3">
         <v>940</v>
       </c>
       <c r="C134" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="D134" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="E134" t="s">
         <v>10</v>
@@ -4975,16 +4978,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B135" s="3">
         <v>941</v>
       </c>
       <c r="C135" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="D135" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="E135" t="s">
         <v>10</v>
@@ -4992,16 +4995,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B136" s="3">
         <v>942</v>
       </c>
       <c r="C136" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="D136" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="E136" t="s">
         <v>10</v>
@@ -5009,16 +5012,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="B137" s="3">
         <v>943</v>
       </c>
       <c r="C137" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="D137" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="E137" t="s">
         <v>10</v>
@@ -5026,16 +5029,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B138" s="3">
         <v>944</v>
       </c>
       <c r="C138" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="D138" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="E138" t="s">
         <v>10</v>
@@ -5043,16 +5046,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="B139" s="3">
         <v>945</v>
       </c>
       <c r="C139" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="D139" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="E139" t="s">
         <v>10</v>
@@ -5060,16 +5063,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B140" s="3">
         <v>946</v>
       </c>
       <c r="C140" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="D140" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="E140" t="s">
         <v>10</v>
@@ -5077,16 +5080,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B141" s="3">
         <v>947</v>
       </c>
       <c r="C141" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D141" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="E141" t="s">
         <v>10</v>
@@ -5094,16 +5097,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B142" s="3">
         <v>948</v>
       </c>
       <c r="C142" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="D142" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="E142" t="s">
         <v>10</v>
@@ -5111,33 +5114,33 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B143" s="3">
         <v>950</v>
       </c>
       <c r="C143" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="D143" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="E143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B144" s="3">
         <v>951</v>
       </c>
       <c r="C144" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="D144" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="E144" t="s">
         <v>10</v>
@@ -5145,16 +5148,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="B145" s="3">
         <v>952</v>
       </c>
       <c r="C145" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="D145" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="E145" t="s">
         <v>10</v>
@@ -5162,16 +5165,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B146" s="3">
         <v>955</v>
       </c>
       <c r="C146" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="D146" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="E146" t="s">
         <v>10</v>
@@ -5179,16 +5182,16 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B147" s="3">
         <v>957</v>
       </c>
       <c r="C147" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="D147" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="E147" t="s">
         <v>10</v>
@@ -5196,16 +5199,16 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B148" s="3">
         <v>958</v>
       </c>
       <c r="C148" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="D148" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="E148" t="s">
         <v>10</v>
@@ -5213,16 +5216,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="B149" s="3">
         <v>959</v>
       </c>
       <c r="C149" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="D149" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="E149" t="s">
         <v>10</v>
@@ -5233,16 +5236,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="B150" s="3">
         <v>960</v>
       </c>
       <c r="C150" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="D150" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="E150" t="s">
         <v>10</v>
@@ -5250,16 +5253,16 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B151" s="3">
         <v>961</v>
       </c>
       <c r="C151" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="D151" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="E151" t="s">
         <v>10</v>
@@ -5267,16 +5270,16 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="B152" s="3">
         <v>962</v>
       </c>
       <c r="C152" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="D152" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="E152" t="s">
         <v>10</v>
@@ -5284,16 +5287,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>321</v>
+        <v>737</v>
       </c>
       <c r="B153" s="3">
         <v>963</v>
       </c>
       <c r="C153" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="D153" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="E153" t="s">
         <v>10</v>
@@ -5301,16 +5304,16 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="B154" s="3">
         <v>964</v>
       </c>
       <c r="C154" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="D154" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="E154" t="s">
         <v>10</v>
@@ -5318,50 +5321,50 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B155" s="3">
         <v>965</v>
       </c>
       <c r="C155" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="D155" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="E155" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B156" s="3">
         <v>966</v>
       </c>
       <c r="C156" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="D156" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="E156" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B157" s="3">
         <v>967</v>
       </c>
       <c r="C157" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="D157" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="E157" t="s">
         <v>10</v>
@@ -5369,16 +5372,16 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B158" s="3">
         <v>968</v>
       </c>
       <c r="C158" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="D158" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="E158" t="s">
         <v>10</v>
@@ -5386,16 +5389,16 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B159" s="3">
         <v>969</v>
       </c>
       <c r="C159" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="D159" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="E159" t="s">
         <v>10</v>
@@ -5406,16 +5409,16 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B160" s="3">
         <v>970</v>
       </c>
       <c r="C160" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="D160" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="E160" t="s">
         <v>10</v>
@@ -5423,16 +5426,16 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B161" s="3">
         <v>971</v>
       </c>
       <c r="C161" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="D161" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="E161" t="s">
         <v>10</v>
@@ -5440,16 +5443,16 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B162" s="3">
         <v>973</v>
       </c>
       <c r="C162" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="D162" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="E162" t="s">
         <v>10</v>
@@ -5457,16 +5460,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="B163" s="3">
         <v>974</v>
       </c>
       <c r="C163" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="D163" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="E163" t="s">
         <v>10</v>
@@ -5477,16 +5480,16 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B164" s="3">
         <v>976</v>
       </c>
       <c r="C164" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D164" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="E164" t="s">
         <v>10</v>
@@ -5494,16 +5497,16 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B165" s="3">
         <v>977</v>
       </c>
       <c r="C165" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="D165" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="E165" t="s">
         <v>10</v>
@@ -5511,16 +5514,16 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B166" s="3">
         <v>978</v>
       </c>
       <c r="C166" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="D166" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="E166" t="s">
         <v>10</v>
@@ -5528,16 +5531,16 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B167" s="3">
         <v>979</v>
       </c>
       <c r="C167" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="D167" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="E167" t="s">
         <v>10</v>
@@ -5545,16 +5548,16 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>335</v>
+        <v>738</v>
       </c>
       <c r="B168" s="3">
         <v>980</v>
       </c>
       <c r="C168" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="D168" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="E168" t="s">
         <v>10</v>
@@ -5562,16 +5565,16 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B169" s="3">
         <v>981</v>
       </c>
       <c r="C169" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="D169" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="E169" t="s">
         <v>10</v>
@@ -5579,16 +5582,16 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="B170" s="3">
         <v>982</v>
       </c>
       <c r="C170" t="s">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="D170" t="s">
-        <v>591</v>
+        <v>568</v>
       </c>
       <c r="E170" t="s">
         <v>10</v>
@@ -5596,16 +5599,16 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="B171" s="3">
         <v>984</v>
       </c>
       <c r="C171" t="s">
-        <v>592</v>
+        <v>569</v>
       </c>
       <c r="D171" t="s">
-        <v>593</v>
+        <v>570</v>
       </c>
       <c r="E171" t="s">
         <v>10</v>
@@ -5613,16 +5616,16 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B172" s="3">
         <v>985</v>
       </c>
       <c r="C172" t="s">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="D172" t="s">
-        <v>595</v>
+        <v>572</v>
       </c>
       <c r="E172" t="s">
         <v>10</v>
@@ -5630,16 +5633,16 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B173" s="3">
         <v>986</v>
       </c>
       <c r="C173" t="s">
-        <v>596</v>
+        <v>573</v>
       </c>
       <c r="D173" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="E173" t="s">
         <v>10</v>
@@ -5647,16 +5650,16 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="B174" s="3">
         <v>987</v>
       </c>
       <c r="C174" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="D174" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="E174" t="s">
         <v>10</v>
@@ -5664,33 +5667,33 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="B175" s="3">
         <v>989</v>
       </c>
       <c r="C175" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="D175" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="E175" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="B176" s="3">
         <v>991</v>
       </c>
       <c r="C176" t="s">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="D176" t="s">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="E176" t="s">
         <v>10</v>
@@ -5698,67 +5701,67 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="B177" s="3">
         <v>992</v>
       </c>
       <c r="C177" t="s">
-        <v>604</v>
+        <v>581</v>
       </c>
       <c r="D177" t="s">
-        <v>605</v>
+        <v>582</v>
       </c>
       <c r="E177" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="B178" s="3">
         <v>993</v>
       </c>
       <c r="C178" t="s">
-        <v>606</v>
+        <v>583</v>
       </c>
       <c r="D178" t="s">
-        <v>607</v>
+        <v>584</v>
       </c>
       <c r="E178" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="B179" s="3">
         <v>994</v>
       </c>
       <c r="C179" t="s">
-        <v>608</v>
+        <v>585</v>
       </c>
       <c r="D179" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
       <c r="E179" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="B180" s="3">
         <v>995</v>
       </c>
       <c r="C180" t="s">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="D180" t="s">
-        <v>611</v>
+        <v>588</v>
       </c>
       <c r="E180" t="s">
         <v>10</v>
@@ -5766,16 +5769,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="B181" s="3">
         <v>996</v>
       </c>
       <c r="C181" t="s">
-        <v>612</v>
+        <v>589</v>
       </c>
       <c r="D181" t="s">
-        <v>613</v>
+        <v>590</v>
       </c>
       <c r="E181" t="s">
         <v>10</v>
@@ -5783,16 +5786,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="B182" s="3">
         <v>999</v>
       </c>
       <c r="C182" t="s">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="D182" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="E182" t="s">
         <v>10</v>
@@ -5800,16 +5803,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="B183" s="3">
         <v>1000</v>
       </c>
       <c r="C183" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="D183" t="s">
-        <v>617</v>
+        <v>594</v>
       </c>
       <c r="E183" t="s">
         <v>10</v>
@@ -5817,16 +5820,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="B184" s="3">
         <v>1001</v>
       </c>
       <c r="C184" t="s">
-        <v>618</v>
+        <v>595</v>
       </c>
       <c r="D184" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="E184" t="s">
         <v>10</v>
@@ -5834,16 +5837,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B185" s="3">
         <v>1002</v>
       </c>
       <c r="C185" t="s">
-        <v>620</v>
+        <v>597</v>
       </c>
       <c r="D185" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="E185" t="s">
         <v>10</v>
@@ -5851,33 +5854,33 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="B186" s="3">
         <v>1003</v>
       </c>
       <c r="C186" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="D186" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="E186" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="B187" s="3">
         <v>1004</v>
       </c>
       <c r="C187" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="D187" t="s">
-        <v>625</v>
+        <v>602</v>
       </c>
       <c r="E187" t="s">
         <v>10</v>
@@ -5885,16 +5888,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="B188" s="3">
         <v>1005</v>
       </c>
       <c r="C188" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="D188" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="E188" t="s">
         <v>10</v>
@@ -5902,16 +5905,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="B189" s="3">
         <v>1007</v>
       </c>
       <c r="C189" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="D189" t="s">
-        <v>629</v>
+        <v>606</v>
       </c>
       <c r="E189" t="s">
         <v>10</v>
@@ -5919,16 +5922,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="B190" s="3">
         <v>1008</v>
       </c>
       <c r="C190" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="D190" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="E190" t="s">
         <v>10</v>
@@ -5936,16 +5939,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="B191" s="3">
         <v>1009</v>
       </c>
       <c r="C191" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="D191" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="E191" t="s">
         <v>10</v>
@@ -5953,67 +5956,67 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="B192" s="3">
         <v>1010</v>
       </c>
       <c r="C192" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="D192" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="E192" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="B193" s="3">
         <v>1011</v>
       </c>
       <c r="C193" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="D193" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
       <c r="E193" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="B194" s="3">
         <v>1012</v>
       </c>
       <c r="C194" t="s">
-        <v>638</v>
+        <v>615</v>
       </c>
       <c r="D194" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="E194" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="B195" s="3">
         <v>1013</v>
       </c>
       <c r="C195" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="D195" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="E195" t="s">
         <v>10</v>
@@ -6021,152 +6024,152 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="B196" s="3">
         <v>1014</v>
       </c>
       <c r="C196" t="s">
-        <v>642</v>
+        <v>619</v>
       </c>
       <c r="D196" t="s">
-        <v>643</v>
+        <v>620</v>
       </c>
       <c r="E196" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="B197" s="3">
         <v>1015</v>
       </c>
       <c r="C197" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="D197" t="s">
-        <v>645</v>
+        <v>622</v>
       </c>
       <c r="E197" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="B198" s="3">
         <v>1016</v>
       </c>
       <c r="C198" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="D198" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="E198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="C199" t="s">
-        <v>648</v>
+        <v>625</v>
       </c>
       <c r="D199" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="E199" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="B200" s="3">
         <v>1019</v>
       </c>
       <c r="C200" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="D200" t="s">
-        <v>651</v>
+        <v>628</v>
       </c>
       <c r="E200" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="B201" s="3">
         <v>1020</v>
       </c>
       <c r="C201" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="D201" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
       <c r="E201" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="B202" s="3">
         <v>1021</v>
       </c>
       <c r="C202" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="D202" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="E202" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="B203" s="3">
         <v>1022</v>
       </c>
       <c r="C203" t="s">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="D203" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="E203" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="B204" s="3">
         <v>1025</v>
       </c>
       <c r="C204" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="D204" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="E204" t="s">
         <v>10</v>
@@ -6180,10 +6183,10 @@
         <v>1026</v>
       </c>
       <c r="C205" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="D205" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="E205" t="s">
         <v>10</v>
@@ -6194,16 +6197,16 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="C206" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="D206" t="s">
-        <v>663</v>
+        <v>640</v>
       </c>
       <c r="E206" t="s">
         <v>10</v>
@@ -6214,16 +6217,16 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="B207" s="3">
         <v>1029</v>
       </c>
       <c r="C207" t="s">
-        <v>664</v>
+        <v>641</v>
       </c>
       <c r="D207" t="s">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="E207" t="s">
         <v>10</v>
@@ -6231,16 +6234,16 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="C208" t="s">
-        <v>666</v>
+        <v>643</v>
       </c>
       <c r="D208" t="s">
-        <v>667</v>
+        <v>644</v>
       </c>
       <c r="E208" t="s">
         <v>10</v>
@@ -6251,16 +6254,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>544</v>
+        <v>739</v>
       </c>
       <c r="B209" s="3">
         <v>1031</v>
       </c>
       <c r="C209" t="s">
-        <v>668</v>
+        <v>645</v>
       </c>
       <c r="D209" t="s">
-        <v>669</v>
+        <v>646</v>
       </c>
       <c r="E209" t="s">
         <v>10</v>
@@ -6268,16 +6271,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="B210" s="3">
         <v>1032</v>
       </c>
       <c r="C210" t="s">
-        <v>670</v>
+        <v>647</v>
       </c>
       <c r="D210" t="s">
-        <v>671</v>
+        <v>648</v>
       </c>
       <c r="E210" t="s">
         <v>10</v>
@@ -6285,16 +6288,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="B211" s="3">
         <v>1033</v>
       </c>
       <c r="C211" t="s">
-        <v>672</v>
+        <v>649</v>
       </c>
       <c r="D211" t="s">
-        <v>673</v>
+        <v>650</v>
       </c>
       <c r="E211" t="s">
         <v>10</v>
@@ -6302,16 +6305,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>547</v>
+        <v>740</v>
       </c>
       <c r="B212" s="3">
         <v>1035</v>
       </c>
       <c r="C212" t="s">
-        <v>674</v>
+        <v>651</v>
       </c>
       <c r="D212" t="s">
-        <v>675</v>
+        <v>652</v>
       </c>
       <c r="E212" t="s">
         <v>10</v>
@@ -6319,33 +6322,33 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>548</v>
+        <v>741</v>
       </c>
       <c r="B213" s="3">
         <v>1037</v>
       </c>
       <c r="C213" t="s">
-        <v>676</v>
+        <v>653</v>
       </c>
       <c r="D213" t="s">
-        <v>677</v>
+        <v>654</v>
       </c>
       <c r="E213" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="B214" s="3">
         <v>1038</v>
       </c>
       <c r="C214" t="s">
-        <v>678</v>
+        <v>655</v>
       </c>
       <c r="D214" t="s">
-        <v>679</v>
+        <v>656</v>
       </c>
       <c r="E214" t="s">
         <v>10</v>
@@ -6353,16 +6356,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="B215" s="3">
         <v>1040</v>
       </c>
       <c r="C215" t="s">
-        <v>680</v>
+        <v>657</v>
       </c>
       <c r="D215" t="s">
-        <v>681</v>
+        <v>658</v>
       </c>
       <c r="E215" t="s">
         <v>10</v>
@@ -6370,16 +6373,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>551</v>
+        <v>742</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="C216" t="s">
-        <v>683</v>
+        <v>660</v>
       </c>
       <c r="D216" t="s">
-        <v>682</v>
+        <v>659</v>
       </c>
       <c r="E216" t="s">
         <v>10</v>
@@ -6387,33 +6390,33 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="B217" s="3">
         <v>1043</v>
       </c>
       <c r="C217" t="s">
-        <v>684</v>
+        <v>661</v>
       </c>
       <c r="D217" t="s">
-        <v>685</v>
+        <v>662</v>
       </c>
       <c r="E217" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="B218" s="3">
         <v>1049</v>
       </c>
       <c r="C218" t="s">
-        <v>686</v>
+        <v>663</v>
       </c>
       <c r="D218" t="s">
-        <v>687</v>
+        <v>664</v>
       </c>
       <c r="E218" t="s">
         <v>10</v>
@@ -6421,16 +6424,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="B219" s="3">
         <v>1050</v>
       </c>
       <c r="C219" t="s">
-        <v>688</v>
+        <v>665</v>
       </c>
       <c r="D219" t="s">
-        <v>689</v>
+        <v>666</v>
       </c>
       <c r="E219" t="s">
         <v>10</v>
@@ -6438,16 +6441,16 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>556</v>
+        <v>743</v>
       </c>
       <c r="B220" s="3">
         <v>1051</v>
       </c>
       <c r="C220" t="s">
-        <v>690</v>
+        <v>667</v>
       </c>
       <c r="D220" t="s">
-        <v>691</v>
+        <v>668</v>
       </c>
       <c r="E220" t="s">
         <v>10</v>
@@ -6455,33 +6458,33 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="B221" s="3">
         <v>1052</v>
       </c>
       <c r="C221" t="s">
-        <v>692</v>
+        <v>669</v>
       </c>
       <c r="D221" t="s">
-        <v>693</v>
+        <v>670</v>
       </c>
       <c r="E221" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="B222" s="3">
         <v>1053</v>
       </c>
       <c r="C222" t="s">
-        <v>694</v>
+        <v>671</v>
       </c>
       <c r="D222" t="s">
-        <v>695</v>
+        <v>672</v>
       </c>
       <c r="E222" t="s">
         <v>10</v>
@@ -6489,16 +6492,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="B223" s="3">
         <v>1058</v>
       </c>
       <c r="C223" t="s">
-        <v>696</v>
+        <v>673</v>
       </c>
       <c r="D223" t="s">
-        <v>697</v>
+        <v>674</v>
       </c>
       <c r="E223" t="s">
         <v>10</v>
@@ -6506,203 +6509,203 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="B224" s="3">
         <v>1060</v>
       </c>
       <c r="C224" t="s">
-        <v>698</v>
+        <v>675</v>
       </c>
       <c r="D224" t="s">
-        <v>699</v>
+        <v>676</v>
       </c>
       <c r="E224" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="B225" s="3">
         <v>1061</v>
       </c>
       <c r="C225" t="s">
-        <v>700</v>
+        <v>677</v>
       </c>
       <c r="D225" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="E225" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="B226" s="3">
         <v>1062</v>
       </c>
       <c r="C226" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="D226" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="E226" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="C227" t="s">
-        <v>704</v>
+        <v>681</v>
       </c>
       <c r="D227" t="s">
-        <v>705</v>
+        <v>682</v>
       </c>
       <c r="E227" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="C228" t="s">
-        <v>706</v>
+        <v>683</v>
       </c>
       <c r="D228" t="s">
-        <v>707</v>
+        <v>684</v>
       </c>
       <c r="E228" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="B229" s="3">
         <v>1067</v>
       </c>
       <c r="C229" t="s">
-        <v>708</v>
+        <v>685</v>
       </c>
       <c r="D229" t="s">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="E229" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="B230" s="3">
         <v>1068</v>
       </c>
       <c r="C230" t="s">
-        <v>710</v>
+        <v>687</v>
       </c>
       <c r="D230" t="s">
-        <v>711</v>
+        <v>688</v>
       </c>
       <c r="E230" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="B231" s="3">
         <v>1070</v>
       </c>
       <c r="C231" t="s">
-        <v>712</v>
+        <v>689</v>
       </c>
       <c r="D231" t="s">
-        <v>713</v>
+        <v>690</v>
       </c>
       <c r="E231" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="B232" s="3">
         <v>1071</v>
       </c>
       <c r="C232" t="s">
-        <v>714</v>
+        <v>691</v>
       </c>
       <c r="D232" t="s">
-        <v>715</v>
+        <v>692</v>
       </c>
       <c r="E232" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="C233" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="D233" t="s">
-        <v>717</v>
+        <v>694</v>
       </c>
       <c r="E233" t="s">
-        <v>746</v>
+        <v>723</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="B234" s="3">
         <v>1075</v>
       </c>
       <c r="C234" t="s">
-        <v>718</v>
+        <v>695</v>
       </c>
       <c r="D234" t="s">
-        <v>719</v>
+        <v>696</v>
       </c>
       <c r="E234" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>574</v>
+        <v>744</v>
       </c>
       <c r="B235" s="3">
         <v>1076</v>
       </c>
       <c r="C235" t="s">
-        <v>720</v>
+        <v>697</v>
       </c>
       <c r="D235" t="s">
-        <v>721</v>
+        <v>698</v>
       </c>
       <c r="E235" t="s">
         <v>10</v>
@@ -6710,209 +6713,210 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="B236" s="3">
         <v>1079</v>
       </c>
       <c r="C236" t="s">
-        <v>722</v>
+        <v>699</v>
       </c>
       <c r="D236" t="s">
-        <v>723</v>
+        <v>700</v>
       </c>
       <c r="E236" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="C237" t="s">
-        <v>724</v>
+        <v>701</v>
       </c>
       <c r="D237" t="s">
-        <v>725</v>
+        <v>702</v>
       </c>
       <c r="E237" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>578</v>
+        <v>745</v>
       </c>
       <c r="B238" s="3">
         <v>1082</v>
       </c>
       <c r="C238" t="s">
-        <v>726</v>
+        <v>703</v>
       </c>
       <c r="D238" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="E238" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="C239" t="s">
-        <v>728</v>
+        <v>705</v>
       </c>
       <c r="D239" t="s">
-        <v>729</v>
+        <v>706</v>
       </c>
       <c r="E239" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="C240" t="s">
-        <v>730</v>
+        <v>707</v>
       </c>
       <c r="D240" t="s">
-        <v>731</v>
+        <v>708</v>
       </c>
       <c r="E240" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>589</v>
+        <v>566</v>
       </c>
       <c r="B241" s="3">
         <v>1087</v>
       </c>
       <c r="C241" t="s">
-        <v>732</v>
+        <v>709</v>
       </c>
       <c r="D241" t="s">
-        <v>733</v>
+        <v>710</v>
       </c>
       <c r="E241" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="B242" s="3">
         <v>1088</v>
       </c>
       <c r="C242" t="s">
-        <v>734</v>
+        <v>711</v>
       </c>
       <c r="D242" t="s">
-        <v>735</v>
+        <v>712</v>
       </c>
       <c r="E242" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
       <c r="B243" s="3">
         <v>1089</v>
       </c>
       <c r="C243" t="s">
-        <v>736</v>
+        <v>713</v>
       </c>
       <c r="D243" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
       <c r="E243" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>585</v>
+        <v>746</v>
       </c>
       <c r="B244" s="3">
         <v>1090</v>
       </c>
       <c r="C244" t="s">
-        <v>738</v>
+        <v>715</v>
       </c>
       <c r="D244" t="s">
-        <v>739</v>
+        <v>716</v>
       </c>
       <c r="E244" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="B245" s="3">
         <v>1096</v>
       </c>
       <c r="C245" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="D245" t="s">
-        <v>741</v>
+        <v>718</v>
       </c>
       <c r="E245" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="B246" s="3">
         <v>1097</v>
       </c>
       <c r="C246" t="s">
-        <v>742</v>
+        <v>719</v>
       </c>
       <c r="D246" t="s">
-        <v>743</v>
+        <v>720</v>
       </c>
       <c r="E246" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="B247" s="3">
         <v>1098</v>
       </c>
       <c r="C247" t="s">
-        <v>744</v>
+        <v>721</v>
       </c>
       <c r="D247" t="s">
-        <v>745</v>
+        <v>722</v>
       </c>
       <c r="E247" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G247" xr:uid="{78930770-7FA4-9A4B-933F-114C9144B845}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>